--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/段落明细表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/段落明细表.xpt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56062232-BC0E-47C2-80C7-24A9513F32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5CAD3D-A6B0-4955-8D2C-79DB0154927D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5650" yWindow="1810" windowWidth="17880" windowHeight="7930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
